--- a/site/StructureDefinition-histologie.xlsx
+++ b/site/StructureDefinition-histologie.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T07:55:24+00:00</t>
+    <t>2024-02-29T10:08:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-histologie.xlsx
+++ b/site/StructureDefinition-histologie.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:08:17+00:00</t>
+    <t>2024-02-29T10:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-histologie.xlsx
+++ b/site/StructureDefinition-histologie.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://krebsregister-rlp.de/fhir/tumorboard/StructureDefinition/histologie</t>
+    <t>http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/histologie</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T10:35:30+00:00</t>
+    <t>2024-04-07T13:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -932,7 +932,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://krebsregister-rlp.de/fhir/tumorboard/StructureDefinition/TumorPatient)
+    <t xml:space="preserve">Reference(http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/TumorPatient)
 </t>
   </si>
   <si>
@@ -963,7 +963,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://krebsregister-rlp.de/fhir/tumorboard/StructureDefinition/tumor)
+    <t xml:space="preserve">Reference(http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/tumor)
 </t>
   </si>
   <si>
